--- a/Jupyter/buoi3/students_analysis_complete.xlsx
+++ b/Jupyter/buoi3/students_analysis_complete.xlsx
@@ -176,7 +176,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,13 +187,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -343,12 +336,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -661,85 +666,79 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -748,10 +747,10 @@
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -760,10 +759,10 @@
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,10 +771,10 @@
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,10 +783,10 @@
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,20 +795,33 @@
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1159,11 +1171,19 @@
   <sheetPr/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H21"/>
+    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <cols>
+    <col min="3" max="3" width="10.5625" customWidth="1"/>
+    <col min="4" max="4" width="13.6875" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="8.984375" customWidth="1"/>
+    <col min="7" max="7" width="16.1875" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -1192,522 +1212,522 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
+      <c r="E2" s="4">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4">
         <v>7.66666666666667</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="4">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4">
         <v>7</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>6</v>
       </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>7.33333333333333</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>5</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>6</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="4">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
         <v>6</v>
       </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="4">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>8.33333333333333</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>9.66666666666667</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>5</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>5</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>7</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>5.66666666666667</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>6</v>
       </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="4">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
         <v>6</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>7.33333333333333</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
         <v>7</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>8</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>5</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>6.66666666666667</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>6</v>
       </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D11" s="4">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>8</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4">
         <v>5</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>6</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>8</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>6.33333333333333</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>7</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>5</v>
       </c>
-      <c r="E13">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" s="4">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4">
         <v>7</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4">
         <v>6</v>
       </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="4">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4">
         <v>6</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <v>7</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>5</v>
       </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="D15" s="4">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="4">
         <v>8.33333333333333</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="4">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
         <v>8</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>7</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="4">
         <v>8.33333333333333</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>5</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>8</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>7</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="4">
         <v>6.66666666666667</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>10</v>
-      </c>
-      <c r="H18">
+      <c r="C18" s="4">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4">
+        <v>10</v>
+      </c>
+      <c r="H18" s="4">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4">
         <v>7</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>7</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>6</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="4">
         <v>6.66666666666667</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C20">
-        <v>9</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="E20">
+      <c r="C20" s="4">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4">
         <v>6</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="4">
         <v>8.33333333333333</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>8</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>6</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>8</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>7.33333333333333</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
         <v>22</v>
       </c>
     </row>
@@ -1720,15 +1740,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="28.375" customWidth="1"/>
+    <col min="4" max="4" width="16.3125" customWidth="1"/>
+    <col min="5" max="5" width="15.0625" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
+    <col min="7" max="7" width="35.4375" customWidth="1"/>
+    <col min="8" max="8" width="29.25" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="39.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1759,36 +1791,38 @@
       <c r="J1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
         <v>7.65</v>
       </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="2">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>5.66666666666667</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1803,8 +1837,8 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+      <selection activeCell="W77" sqref="W77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1846,132 +1880,132 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="2">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>8.33333333333333</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>9.66666666666667</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>8.33333333333333</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="2">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>8.33333333333333</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>25</v>
       </c>
     </row>
